--- a/biology/Médecine/Joseph_Baratte/Joseph_Baratte.xlsx
+++ b/biology/Médecine/Joseph_Baratte/Joseph_Baratte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Baratte, né en 1718 dans la province de Franche-Comté et mort le 26 mai 1803 à Besançon, est un apothicaire français. Il fonde une officine, la pharmacie Baratte de Besançon, dans laquelle naît l’écrivain Victor Hugo[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Baratte, né en 1718 dans la province de Franche-Comté et mort le 26 mai 1803 à Besançon, est un apothicaire français. Il fonde une officine, la pharmacie Baratte de Besançon, dans laquelle naît l’écrivain Victor Hugo,.
 </t>
         </is>
       </c>
@@ -513,17 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Joseph Baratte naît en 1718 à Fort-du-Plasne[4],[5] ou au Lac-des-Rouges-Truites[6] dans la région du Grandvaux. Il est le fils d'Alexis Baratte, négociant, et de Pierrette Prudon[7].
-Apothicaire bisontin
-Apothicaire, il fonde une officine à Besançon en 1738[8]. Il est reçu citoyen de Besançon en 1745[9],[Note 1].
-En 1754, il acquiert auprès de la famille Calf une maison à Besançon, située à l'époque place Saint-Quentin (actuelle place Victor-Hugo), dans laquelle il transfère son officine[3]. Cette maison devient la pharmacie Baratte de Besançon[3],[10],[11]. La famille Baratte y exerce le métier d'apothicaire jusqu'en 1800[2].
-Sa maison accueille au 1er étage entre 1801 et 1802 le chef de bataillon Léopold Hugo et son épouse Sophie Trébuchet ; leur fils Victor Hugo y naît le 26 février 1802[2],[12],[13],[14].
-Persécutions révolutionnaires
-En 1793, sous la Terreur révolutionnaire, il est accusé de « délit contre-révolutionnaire »[6]. D'abord consigné à domicile avec gardes le 28 avril 1793, il est emprisonné à la Conciergerie[15] puis interrogé le 1er brumaire de l'an III avant d'être finalement remis en liberté le 4 brumaire de la même année[6],[16] ; il doit sa libération à l'intervention auprès d'Antoine Fouquier-Tinville de son fils François-Xavier, employé au Comité de salut public, section des Armes, comme chef du bureau de la grosse artillerie[6].
-En 1798 il héberge en secret dans sa maison de Bregille (quartier de Besançon) un prêtre catholique réfractaire émigré, le père Pierre Mathilde Bertin-Mourot (1760-1798), qui évangélise les faubourgs de Besançon[17],[18]. Ce dernier est découvert et arrêté le 1er juin 1798[17],[18]. Jugé par une commission militaire et condamné à mort, il est fusillé le 30 juillet 1798[17],[18]. Accusé d'avoir caché ce prêtre, Joseph Baratte est arrêté, incarcéré à la maison d’arrêt de Besançon en juin 1798 et interrogé par le juge de paix Mâle[17],[18].
-Mort
-Il décède le 6 prairial an X (26 mai 1803) à Besançon[5].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Baratte naît en 1718 à Fort-du-Plasne, ou au Lac-des-Rouges-Truites dans la région du Grandvaux. Il est le fils d'Alexis Baratte, négociant, et de Pierrette Prudon.
 </t>
         </is>
       </c>
@@ -549,13 +557,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Apothicaire bisontin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apothicaire, il fonde une officine à Besançon en 1738. Il est reçu citoyen de Besançon en 1745,[Note 1].
+En 1754, il acquiert auprès de la famille Calf une maison à Besançon, située à l'époque place Saint-Quentin (actuelle place Victor-Hugo), dans laquelle il transfère son officine. Cette maison devient la pharmacie Baratte de Besançon. La famille Baratte y exerce le métier d'apothicaire jusqu'en 1800.
+Sa maison accueille au 1er étage entre 1801 et 1802 le chef de bataillon Léopold Hugo et son épouse Sophie Trébuchet ; leur fils Victor Hugo y naît le 26 février 1802.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joseph_Baratte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Baratte</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Persécutions révolutionnaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1793, sous la Terreur révolutionnaire, il est accusé de « délit contre-révolutionnaire ». D'abord consigné à domicile avec gardes le 28 avril 1793, il est emprisonné à la Conciergerie puis interrogé le 1er brumaire de l'an III avant d'être finalement remis en liberté le 4 brumaire de la même année, ; il doit sa libération à l'intervention auprès d'Antoine Fouquier-Tinville de son fils François-Xavier, employé au Comité de salut public, section des Armes, comme chef du bureau de la grosse artillerie.
+En 1798 il héberge en secret dans sa maison de Bregille (quartier de Besançon) un prêtre catholique réfractaire émigré, le père Pierre Mathilde Bertin-Mourot (1760-1798), qui évangélise les faubourgs de Besançon,. Ce dernier est découvert et arrêté le 1er juin 1798,. Jugé par une commission militaire et condamné à mort, il est fusillé le 30 juillet 1798,. Accusé d'avoir caché ce prêtre, Joseph Baratte est arrêté, incarcéré à la maison d’arrêt de Besançon en juin 1798 et interrogé par le juge de paix Mâle,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joseph_Baratte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Baratte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il décède le 6 prairial an X (26 mai 1803) à Besançon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joseph_Baratte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Baratte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il épouse Françoise Julet (1723-1794) le 9 novembre 1745 à Besançon[19],[20]. Le couple a 16 enfants, dont 2 prêtres catholiques[20].
-Veuf, il épouse en 2de noce Jeanne Françoise Pomme[20].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il épouse Françoise Julet (1723-1794) le 9 novembre 1745 à Besançon,. Le couple a 16 enfants, dont 2 prêtres catholiques.
+Veuf, il épouse en 2de noce Jeanne Françoise Pomme.
 </t>
         </is>
       </c>
